--- a/wash_P/GHA.xlsx
+++ b/wash_P/GHA.xlsx
@@ -40287,7 +40287,7 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
@@ -40329,7 +40329,7 @@
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
         <v>0</v>
@@ -46588,7 +46588,7 @@
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR15" t="n">
         <v>0</v>
@@ -49713,16 +49713,16 @@
         <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR16" t="n">
         <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
         <v>0</v>
@@ -50382,7 +50382,7 @@
         <v>0</v>
       </c>
       <c r="LE16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="LF16" t="n">
         <v>0</v>
@@ -52814,7 +52814,7 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -52841,7 +52841,7 @@
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ17" t="n">
         <v>0</v>
@@ -53510,7 +53510,7 @@
         <v>0</v>
       </c>
       <c r="LE17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LF17" t="n">
         <v>0</v>
@@ -55942,7 +55942,7 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH18" t="n">
         <v>0</v>
@@ -55969,7 +55969,7 @@
         <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ18" t="n">
         <v>0</v>
@@ -56638,7 +56638,7 @@
         <v>0</v>
       </c>
       <c r="LE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF18" t="n">
         <v>0</v>
@@ -65491,10 +65491,10 @@
         <v>0</v>
       </c>
       <c r="EJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL21" t="n">
         <v>0</v>
@@ -68616,7 +68616,7 @@
         <v>0</v>
       </c>
       <c r="EI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ22" t="n">
         <v>0</v>
@@ -72278,7 +72278,7 @@
         <v>0</v>
       </c>
       <c r="LE23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="LF23" t="n">
         <v>0</v>
@@ -74878,536 +74878,536 @@
         <v>0</v>
       </c>
       <c r="EK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="II24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE24" t="n">
         <v>1</v>
       </c>
-      <c r="EL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="II24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE24" t="n">
-        <v>3</v>
-      </c>
       <c r="LF24" t="n">
         <v>0</v>
       </c>
@@ -76834,7 +76834,7 @@
         <v>0</v>
       </c>
       <c r="ADM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADN24" t="n">
         <v>0</v>
@@ -78111,7 +78111,7 @@
         <v>0</v>
       </c>
       <c r="FT25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU25" t="n">
         <v>0</v>
@@ -90512,7 +90512,7 @@
         <v>0</v>
       </c>
       <c r="EI29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ29" t="n">
         <v>0</v>
